--- a/predicted_trajectories.xlsx
+++ b/predicted_trajectories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,810 +447,458 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="B2" t="n">
-        <v>834.1172537163824</v>
+        <v>3077.162513269976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>834.1172537163824</v>
+        <v>4092.015648792559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="B4" t="n">
-        <v>2830.770215897365</v>
+        <v>4709.498630076444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="B5" t="n">
-        <v>2830.770215897365</v>
+        <v>5238.650352021337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="B6" t="n">
-        <v>3225.364158193556</v>
+        <v>5693.080605876607</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="B7" t="n">
-        <v>3696.836508034739</v>
+        <v>5863.171644560897</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="B8" t="n">
-        <v>3721.361598147059</v>
+        <v>6331.200899832631</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="B9" t="n">
-        <v>4040.892062790728</v>
+        <v>6698.497324937877</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="B10" t="n">
-        <v>4040.892062790728</v>
+        <v>6906.319319641068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.09</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="B11" t="n">
-        <v>4343.667486639863</v>
+        <v>7093.349864450093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>4432.808196265737</v>
+        <v>7331.737722785797</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="B13" t="n">
-        <v>4432.808196265737</v>
+        <v>7398.478288688837</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.12</v>
+        <v>0.43</v>
       </c>
       <c r="B14" t="n">
-        <v>4892.07645167559</v>
+        <v>7669.54504942052</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.13</v>
+        <v>0.47</v>
       </c>
       <c r="B15" t="n">
-        <v>4892.07645167559</v>
+        <v>7857.838097332378</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="B16" t="n">
-        <v>4892.156367617734</v>
+        <v>7962.96903945955</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
       <c r="B17" t="n">
-        <v>5252.91190553838</v>
+        <v>7898.640174301781</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.16</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>5252.91190553838</v>
+        <v>8040.269317703791</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.17</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>5252.91190553838</v>
+        <v>8083.525844706185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.18</v>
+        <v>0.6300000000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>5252.91190553838</v>
+        <v>8132.924005701289</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.19</v>
+        <v>0.6700000000000002</v>
       </c>
       <c r="B21" t="n">
-        <v>5481.941162719432</v>
+        <v>8353.570209014373</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="B22" t="n">
-        <v>5481.941162719432</v>
+        <v>8368.816707893682</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.21</v>
+        <v>0.7300000000000002</v>
       </c>
       <c r="B23" t="n">
-        <v>5662.367918083667</v>
+        <v>8394.334141484829</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.22</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="B24" t="n">
-        <v>5719.411973238221</v>
+        <v>8406.355288039766</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.23</v>
+        <v>0.8000000000000003</v>
       </c>
       <c r="B25" t="n">
-        <v>5719.411973238221</v>
+        <v>8422.872370634068</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.24</v>
+        <v>0.8300000000000003</v>
       </c>
       <c r="B26" t="n">
-        <v>5766.794856266129</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.25</v>
+        <v>0.8700000000000003</v>
       </c>
       <c r="B27" t="n">
-        <v>5766.794856266129</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.26</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="B28" t="n">
-        <v>6094.445024828155</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.27</v>
+        <v>0.9300000000000004</v>
       </c>
       <c r="B29" t="n">
-        <v>6099.442217773368</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.28</v>
+        <v>0.9700000000000004</v>
       </c>
       <c r="B30" t="n">
-        <v>6099.442217773368</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>6300.380814212744</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3</v>
+        <v>1.03</v>
       </c>
       <c r="B32" t="n">
-        <v>6300.380814212744</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.31</v>
+        <v>1.070000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>6300.381469535163</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.32</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="B34" t="n">
-        <v>6443.575216429293</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.33</v>
+        <v>1.130000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>6443.575216466676</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.34</v>
+        <v>1.170000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>6516.639325821726</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.35</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>6516.639325821726</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.36</v>
+        <v>1.230000000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>6686.149747931003</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.37</v>
+        <v>1.270000000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>6686.704690168023</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.38</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>6686.704690168023</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.39</v>
+        <v>1.330000000000001</v>
       </c>
       <c r="B41" t="n">
-        <v>6817.930027128903</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.4</v>
+        <v>1.370000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>6817.930027128903</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.41</v>
+        <v>1.400000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>6873.174337851673</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.42</v>
+        <v>1.430000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>7051.251573615705</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.43</v>
+        <v>1.470000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>7051.251573615705</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.44</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>7054.505329625024</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.45</v>
+        <v>1.530000000000001</v>
       </c>
       <c r="B47" t="n">
-        <v>7054.505329625024</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.46</v>
+        <v>1.570000000000001</v>
       </c>
       <c r="B48" t="n">
-        <v>7144.156641074791</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.47</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="B49" t="n">
-        <v>7238.611677549092</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.48</v>
+        <v>1.630000000000001</v>
       </c>
       <c r="B50" t="n">
-        <v>7238.611677549092</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.49</v>
+        <v>1.670000000000001</v>
       </c>
       <c r="B51" t="n">
-        <v>7320.726099540881</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.5</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="B52" t="n">
-        <v>7320.726099540881</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.51</v>
+        <v>1.730000000000001</v>
       </c>
       <c r="B53" t="n">
-        <v>7320.726099540881</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.52</v>
+        <v>1.770000000000001</v>
       </c>
       <c r="B54" t="n">
-        <v>7494.125917138773</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.53</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="B55" t="n">
-        <v>7494.125917138773</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.54</v>
+        <v>1.830000000000001</v>
       </c>
       <c r="B56" t="n">
-        <v>7494.125917138773</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.55</v>
+        <v>1.870000000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>7541.201137816073</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.900000000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>7637.968309700131</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="B59" t="n">
-        <v>7666.827038508944</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>7666.827038508944</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>7750.185003211747</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B62" t="n">
-        <v>7750.185003711744</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>7750.185003711744</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>7804.170892430811</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>7804.170892430811</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>7874.938058189447</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>7874.938058189447</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>7991.226278192024</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>7991.672650349887</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>7991.672650349887</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>0.6900000000000001</v>
-      </c>
-      <c r="B71" t="n">
-        <v>8037.509491430862</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="B72" t="n">
-        <v>8037.509491430862</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>8039.47693680538</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>8096.320371477505</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>8096.320371477505</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>8096.320371477505</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>8096.320371477505</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>8122.241399231748</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>8122.241399231748</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>8122.241399231748</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>8159.719998741552</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B82" t="n">
-        <v>8159.719998741552</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="B83" t="n">
-        <v>8159.719998741552</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="B84" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="B85" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B92" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0.9400000000000001</v>
-      </c>
-      <c r="B96" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="B97" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>8165.018598087261</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" t="n">
-        <v>8165.018598087261</v>
+        <v>8425.207500664945</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_trajectories.xlsx
+++ b/predicted_trajectories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,458 +447,1610 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3077.162513269976</v>
+        <v>2168.175410572094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="B3" t="n">
-        <v>4092.015648792559</v>
+        <v>2168.175410572094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="B4" t="n">
-        <v>4709.498630076444</v>
+        <v>3233.803846365937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="B5" t="n">
-        <v>5238.650352021337</v>
+        <v>3233.803846365937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="B6" t="n">
-        <v>5693.080605876607</v>
+        <v>3233.803846412404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="B7" t="n">
-        <v>5863.171644560897</v>
+        <v>4031.776367156587</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="B8" t="n">
-        <v>6331.200899832631</v>
+        <v>4050.298337798356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>6698.497324937877</v>
+        <v>4178.305079005012</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="B10" t="n">
-        <v>6906.319319641068</v>
+        <v>4274.354659878686</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="B11" t="n">
-        <v>7093.349864450093</v>
+        <v>4657.522499533834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="B12" t="n">
-        <v>7331.737722785797</v>
+        <v>4767.89872387102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="B13" t="n">
-        <v>7398.478288688837</v>
+        <v>4767.89872387102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="B14" t="n">
-        <v>7669.54504942052</v>
+        <v>5242.357050961236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.47</v>
+        <v>0.13</v>
       </c>
       <c r="B15" t="n">
-        <v>7857.838097332378</v>
+        <v>5242.357050961236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="B16" t="n">
-        <v>7962.96903945955</v>
+        <v>5242.357050961236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.53</v>
+        <v>0.15</v>
       </c>
       <c r="B17" t="n">
-        <v>7898.640174301781</v>
+        <v>5924.518943020498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="B18" t="n">
-        <v>8040.269317703791</v>
+        <v>5924.518943020498</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="B19" t="n">
-        <v>8083.525844706185</v>
+        <v>5924.518943020498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6300000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="B20" t="n">
-        <v>8132.924005701289</v>
+        <v>5942.631275274472</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6700000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="B21" t="n">
-        <v>8353.570209014373</v>
+        <v>6202.136905787674</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="B22" t="n">
-        <v>8368.816707893682</v>
+        <v>6202.136905787674</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.7300000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="B23" t="n">
-        <v>8394.334141484829</v>
+        <v>6409.020115141892</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7700000000000002</v>
+        <v>0.22</v>
       </c>
       <c r="B24" t="n">
-        <v>8406.355288039766</v>
+        <v>6515.887563788103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="B25" t="n">
-        <v>8422.872370634068</v>
+        <v>6515.887563788103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8300000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="B26" t="n">
-        <v>8425.207500664945</v>
+        <v>6525.812468220682</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8700000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="B27" t="n">
-        <v>8425.207500664945</v>
+        <v>6525.812468220682</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="B28" t="n">
-        <v>8425.207500664945</v>
+        <v>6968.797063033882</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9300000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="B29" t="n">
-        <v>8425.207500664945</v>
+        <v>6969.344632263652</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9700000000000004</v>
+        <v>0.28</v>
       </c>
       <c r="B30" t="n">
-        <v>8425.207500664945</v>
+        <v>6969.344632263652</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="B31" t="n">
-        <v>8425.207500664945</v>
+        <v>7158.748189664171</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.03</v>
+        <v>0.3</v>
       </c>
       <c r="B32" t="n">
-        <v>8425.207500664945</v>
+        <v>7158.748189664171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.070000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="B33" t="n">
-        <v>8425.207500664945</v>
+        <v>7158.748189664171</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="B34" t="n">
-        <v>8425.207500664945</v>
+        <v>7353.719684623558</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.130000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="B35" t="n">
-        <v>8425.207500664945</v>
+        <v>7353.719684660942</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.170000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="B36" t="n">
-        <v>8425.207500664945</v>
+        <v>7362.437257499982</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.200000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="B37" t="n">
-        <v>8425.207500664945</v>
+        <v>7362.437257499982</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.230000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="B38" t="n">
-        <v>8425.207500664945</v>
+        <v>7576.863354277587</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.270000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="B39" t="n">
-        <v>8425.207500664945</v>
+        <v>7578.962511758492</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.300000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="B40" t="n">
-        <v>8425.207500664945</v>
+        <v>7578.962511758492</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.330000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="B41" t="n">
-        <v>8425.207500664945</v>
+        <v>7685.637660962107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.370000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B42" t="n">
-        <v>8425.207500664945</v>
+        <v>7685.637660962107</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.400000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="B43" t="n">
-        <v>8425.207500664945</v>
+        <v>7854.760529184005</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.430000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="B44" t="n">
-        <v>8425.207500664945</v>
+        <v>7903.575249107352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.470000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="B45" t="n">
-        <v>8425.207500664945</v>
+        <v>7903.575249107352</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.500000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="B46" t="n">
-        <v>8425.207500664945</v>
+        <v>7932.437726426794</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.530000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="B47" t="n">
-        <v>8425.207500664945</v>
+        <v>7932.437726426794</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.570000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="B48" t="n">
-        <v>8425.207500664945</v>
+        <v>8074.45041933449</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="B49" t="n">
-        <v>8425.207500664945</v>
+        <v>8077.714775212163</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.630000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="B50" t="n">
-        <v>8425.207500664945</v>
+        <v>8077.714775212163</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.670000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="B51" t="n">
-        <v>8425.207500664945</v>
+        <v>8165.48399700967</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.700000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="B52" t="n">
-        <v>8425.207500664945</v>
+        <v>8209.734064677164</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.730000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="B53" t="n">
-        <v>8425.207500664945</v>
+        <v>8209.734064677164</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.770000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="B54" t="n">
-        <v>8425.207500664945</v>
+        <v>8146.75000003945</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.800000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="B55" t="n">
-        <v>8425.207500664945</v>
+        <v>8146.75000003945</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.830000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="B56" t="n">
-        <v>8425.207500664945</v>
+        <v>8146.75000003945</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.870000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="B57" t="n">
-        <v>8425.207500664945</v>
+        <v>8243.573866576899</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.900000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>8425.207500664945</v>
+        <v>8243.573866581562</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8244.916812390322</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>8244.916812390322</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8282.618560623479</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8332.49996023687</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8332.49996023687</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>8371.176104409005</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>8405.676201722978</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8405.676201731803</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8405.676201731803</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8583.353037135608</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8584.802740525591</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>8584.802740525591</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71" t="n">
+        <v>8607.743080723449</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72" t="n">
+        <v>8607.743080723449</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>8607.939390064599</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8607.964821933771</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8607.964821933771</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8607.964821933771</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>8607.964821933771</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>8608.245031986953</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8608.245031986953</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8608.245031986953</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8608.245031990571</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8608.245031990571</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83" t="n">
+        <v>8608.245031990571</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="B103" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="B104" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="B106" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B107" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="B108" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="B109" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B112" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="B113" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="B121" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B122" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="B123" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="B124" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="B125" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="B126" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B127" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="B128" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="B131" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B132" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="B133" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="B134" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="B136" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B137" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="B147" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="B151" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="B153" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="B154" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="B160" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="B161" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B162" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="B163" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="B164" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="B165" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="B166" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B167" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="B177" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="B178" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="B179" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="B180" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="B181" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B182" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="B183" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="B185" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="B186" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="B187" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="B199" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="B200" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="B201" t="n">
+        <v>8608.245031995941</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2</v>
+      </c>
+      <c r="B202" t="n">
+        <v>8608.245031995941</v>
       </c>
     </row>
   </sheetData>
